--- a/data/canopy and urban.xlsx
+++ b/data/canopy and urban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_li6\Desktop\MYSE project\MYSE-GIS\0-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinparker/github/MYSE_21/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AB053-90D2-4C3C-9889-51E4036EA77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C24EB2-BCD2-D645-9052-5B4815EB4A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF187F47-75DE-4074-96D7-912C3BE75F6E}"/>
+    <workbookView xWindow="30720" yWindow="3060" windowWidth="27200" windowHeight="14860" xr2:uid="{CF187F47-75DE-4074-96D7-912C3BE75F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>site</t>
   </si>
@@ -646,12 +646,18 @@
   </si>
   <si>
     <t>urban5km_median</t>
+  </si>
+  <si>
+    <t> 0.11078200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,12 +667,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,8 +693,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,33 +1014,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A3497-ACEF-48A4-985C-8AD3065A8FAC}">
-  <dimension ref="A1:Q188"/>
+  <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="D98" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1093,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1115,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.17882032002200701</v>
       </c>
       <c r="I2">
@@ -1129,7 +1146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1168,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.153336513489161</v>
       </c>
       <c r="I3">
@@ -1182,7 +1199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1221,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.121909542371976</v>
       </c>
       <c r="I4">
@@ -1235,7 +1252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1274,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>2.5530134568212501</v>
       </c>
       <c r="I5">
@@ -1288,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1327,7 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>4.5731445731445997E-2</v>
       </c>
       <c r="I6">
@@ -1341,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1380,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.162660614605183</v>
       </c>
       <c r="I7">
@@ -1394,7 +1411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1433,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.29478041437931601</v>
       </c>
       <c r="I8">
@@ -1447,7 +1464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +1486,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0.22862838915470499</v>
       </c>
       <c r="I9">
@@ -1500,7 +1517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1539,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0.42833742833742799</v>
       </c>
       <c r="I10">
@@ -1553,7 +1570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1592,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.26284880971149299</v>
       </c>
       <c r="I11">
@@ -1606,7 +1623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1645,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>0.24061805093876801</v>
       </c>
       <c r="I12">
@@ -1659,7 +1676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1698,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>1.2691310529397</v>
       </c>
       <c r="I13">
@@ -1712,7 +1729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1734,7 +1751,7 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.177206551410373</v>
       </c>
       <c r="I14">
@@ -1765,7 +1782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1787,7 +1804,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>7.7603039611223101</v>
       </c>
       <c r="I15">
@@ -1818,7 +1835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1857,7 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>3.5429796874204502</v>
       </c>
       <c r="I16">
@@ -1871,7 +1888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1893,7 +1910,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>1.15797872340425</v>
       </c>
       <c r="I17">
@@ -1924,7 +1941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1963,7 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>2.56918049968403</v>
       </c>
       <c r="I18">
@@ -1977,7 +1994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1999,7 +2016,7 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>0.94846825616856101</v>
       </c>
       <c r="I19">
@@ -2030,7 +2047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2052,7 +2069,7 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>0.20932284980744501</v>
       </c>
       <c r="I20">
@@ -2083,7 +2100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2122,7 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>0.49208391054818901</v>
       </c>
       <c r="I21">
@@ -2136,7 +2153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2175,7 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>0.13740458015267201</v>
       </c>
       <c r="I22">
@@ -2189,7 +2206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2228,7 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>0.24754177267413899</v>
       </c>
       <c r="I23">
@@ -2242,7 +2259,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2281,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>1.4803360805126</v>
       </c>
       <c r="I24">
@@ -2295,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2317,7 +2334,7 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0.37649645736623499</v>
       </c>
       <c r="I25">
@@ -2348,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2370,7 +2387,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>0.526060014430627</v>
       </c>
       <c r="I26">
@@ -2401,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2423,7 +2440,7 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>6.91690544412607</v>
       </c>
       <c r="I27">
@@ -2454,7 +2471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2476,7 +2493,7 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>3.8592442384446999</v>
       </c>
       <c r="I28">
@@ -2507,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2529,7 +2546,7 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>1.54360494836928</v>
       </c>
       <c r="I29">
@@ -2560,7 +2577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2599,7 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>0.86334639460983398</v>
       </c>
       <c r="I30">
@@ -2613,7 +2630,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2635,7 +2652,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>12.1486359468133</v>
       </c>
       <c r="I31">
@@ -2666,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2688,7 +2705,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>13.174184156531901</v>
       </c>
       <c r="I32">
@@ -2719,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2741,7 +2758,7 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>4.1831604215649199</v>
       </c>
       <c r="I33">
@@ -2772,7 +2789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2794,7 +2811,7 @@
       <c r="G34">
         <v>20</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>19.981242570449599</v>
       </c>
       <c r="I34">
@@ -2825,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2847,7 +2864,7 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>0.936492108792078</v>
       </c>
       <c r="I35">
@@ -2878,7 +2895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2900,7 +2917,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>6.0878681977034397</v>
       </c>
       <c r="I36">
@@ -2931,7 +2948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2953,7 +2970,7 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>1.3859106174707401</v>
       </c>
       <c r="I37">
@@ -2984,7 +3001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3006,7 +3023,7 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>0.64254258412962195</v>
       </c>
       <c r="I38">
@@ -3037,7 +3054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3059,7 +3076,7 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39">
@@ -3090,7 +3107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3129,7 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>0.17125000000000001</v>
       </c>
       <c r="I40">
@@ -3143,7 +3160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3165,7 +3182,7 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>0.95501382256848499</v>
       </c>
       <c r="I41">
@@ -3196,7 +3213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3218,7 +3235,7 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>0.585241992800972</v>
       </c>
       <c r="I42">
@@ -3249,7 +3266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3271,7 +3288,7 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>0.42027590632018003</v>
       </c>
       <c r="I43">
@@ -3302,7 +3319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3324,7 +3341,7 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>1.0144286418281601</v>
       </c>
       <c r="I44">
@@ -3355,7 +3372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3377,7 +3394,7 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>0.44382978723404298</v>
       </c>
       <c r="I45">
@@ -3408,7 +3425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3430,7 +3447,7 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>11.650167929481</v>
       </c>
       <c r="I46">
@@ -3461,7 +3478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3483,7 +3500,7 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>0.38837433228638901</v>
       </c>
       <c r="I47">
@@ -3514,7 +3531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3536,7 +3553,7 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>0.23802852776362701</v>
       </c>
       <c r="I48">
@@ -3567,7 +3584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3589,7 +3606,7 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>2.04886856042368</v>
       </c>
       <c r="I49">
@@ -3620,7 +3637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3642,7 +3659,7 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>1.5645570624157299</v>
       </c>
       <c r="I50">
@@ -3673,7 +3690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3695,7 +3712,7 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>0.71148401590958599</v>
       </c>
       <c r="I51">
@@ -3726,7 +3743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3748,7 +3765,7 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>0.55397215397215405</v>
       </c>
       <c r="I52">
@@ -3779,7 +3796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3801,7 +3818,7 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>0.123964946177201</v>
       </c>
       <c r="I53">
@@ -3832,7 +3849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3854,7 +3871,7 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>0.70274344287006296</v>
       </c>
       <c r="I54">
@@ -3885,7 +3902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3907,7 +3924,7 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>0.98830932159680895</v>
       </c>
       <c r="I55">
@@ -3938,7 +3955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3960,7 +3977,7 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>0.86606259438629396</v>
       </c>
       <c r="I56">
@@ -3991,7 +4008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4013,7 +4030,7 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>0.22003323591771201</v>
       </c>
       <c r="I57">
@@ -4044,7 +4061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4066,7 +4083,7 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>2.9999656176221099</v>
       </c>
       <c r="I58">
@@ -4097,7 +4114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4119,7 +4136,7 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>0.22727324828352999</v>
       </c>
       <c r="I59">
@@ -4150,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4172,7 +4189,7 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>0.65702585103660105</v>
       </c>
       <c r="I60">
@@ -4203,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4225,7 +4242,7 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>0.4918596652144</v>
       </c>
       <c r="I61">
@@ -4256,7 +4273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4278,7 +4295,7 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>2.1442147034252299</v>
       </c>
       <c r="I62">
@@ -4309,7 +4326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4331,7 +4348,7 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>0.40765156378978301</v>
       </c>
       <c r="I63">
@@ -4362,7 +4379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4384,7 +4401,7 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>0.57556954170729502</v>
       </c>
       <c r="I64">
@@ -4415,7 +4432,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4437,7 +4454,7 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>2.3846947431165302</v>
       </c>
       <c r="I65">
@@ -4468,7 +4485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4490,7 +4507,7 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>3.5120783176687098</v>
       </c>
       <c r="I66">
@@ -4521,7 +4538,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4543,7 +4560,7 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <v>0.243647182359118</v>
       </c>
       <c r="I67">
@@ -4574,7 +4591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4596,7 +4613,7 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>0.19653436430895899</v>
       </c>
       <c r="I68">
@@ -4627,7 +4644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -4649,7 +4666,7 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>2.8974447157547201</v>
       </c>
       <c r="I69">
@@ -4680,7 +4697,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -4702,7 +4719,7 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <v>8.57427554651753</v>
       </c>
       <c r="I70">
@@ -4733,7 +4750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -4755,7 +4772,7 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>3.30267984044748</v>
       </c>
       <c r="I71">
@@ -4786,7 +4803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -4808,7 +4825,7 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <v>2.5730574083575601</v>
       </c>
       <c r="I72">
@@ -4839,7 +4856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -4861,7 +4878,7 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <v>0.60633484162895901</v>
       </c>
       <c r="I73">
@@ -4892,7 +4909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -4914,7 +4931,7 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>1.8629700519191701</v>
       </c>
       <c r="I74">
@@ -4945,7 +4962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -4967,7 +4984,7 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>0.50958002709502603</v>
       </c>
       <c r="I75">
@@ -4998,7 +5015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -5020,7 +5037,7 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>5.2849428463328696</v>
       </c>
       <c r="I76">
@@ -5051,7 +5068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -5073,7 +5090,7 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>2.9026745164003298</v>
       </c>
       <c r="I77">
@@ -5104,7 +5121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -5126,7 +5143,7 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>1.14272278391723</v>
       </c>
       <c r="I78">
@@ -5157,7 +5174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -5179,7 +5196,7 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>0.19298245614035101</v>
       </c>
       <c r="I79">
@@ -5210,7 +5227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -5232,7 +5249,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>0.21041310044991099</v>
       </c>
       <c r="I80">
@@ -5263,7 +5280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -5285,7 +5302,7 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <v>10.8532788976779</v>
       </c>
       <c r="I81">
@@ -5316,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -5338,7 +5355,7 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <v>0.31495810263993501</v>
       </c>
       <c r="I82">
@@ -5369,7 +5386,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -5391,7 +5408,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <v>0.42688995750391401</v>
       </c>
       <c r="I83">
@@ -5422,7 +5439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -5444,7 +5461,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <v>0.91999954147896001</v>
       </c>
       <c r="I84">
@@ -5475,7 +5492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5497,7 +5514,7 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <v>0.32569709591577001</v>
       </c>
       <c r="I85">
@@ -5528,7 +5545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -5550,7 +5567,7 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <v>0.51443569553805801</v>
       </c>
       <c r="I86">
@@ -5581,7 +5598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -5603,7 +5620,7 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <v>0.50322461339312496</v>
       </c>
       <c r="I87">
@@ -5634,7 +5651,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -5656,6 +5673,12 @@
       <c r="G88">
         <v>0</v>
       </c>
+      <c r="H88" s="2">
+        <v>0.41909099999999999</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
       <c r="J88">
         <v>84.116838487972501</v>
       </c>
@@ -5681,7 +5704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -5703,7 +5726,7 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <v>0.60086200967468295</v>
       </c>
       <c r="I89">
@@ -5734,7 +5757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -5756,7 +5779,7 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="2">
         <v>0.37078278211733401</v>
       </c>
       <c r="I90">
@@ -5787,7 +5810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -5809,7 +5832,7 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <v>0.93630872560143996</v>
       </c>
       <c r="I91">
@@ -5840,7 +5863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -5862,7 +5885,7 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>0.98687806404506095</v>
       </c>
       <c r="I92">
@@ -5893,7 +5916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -5915,7 +5938,7 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <v>1.29307419404596</v>
       </c>
       <c r="I93">
@@ -5946,7 +5969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -5968,7 +5991,7 @@
       <c r="G94">
         <v>2</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <v>17.487724365586899</v>
       </c>
       <c r="I94">
@@ -5999,7 +6022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -6021,7 +6044,7 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <v>11.526102978810499</v>
       </c>
       <c r="I95">
@@ -6052,7 +6075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -6074,7 +6097,7 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <v>1.48267877203842</v>
       </c>
       <c r="I96">
@@ -6105,7 +6128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -6127,7 +6150,7 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <v>2.8381522866029201</v>
       </c>
       <c r="I97">
@@ -6158,7 +6181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -6180,7 +6203,7 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <v>1.0924396956451301</v>
       </c>
       <c r="I98">
@@ -6211,7 +6234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -6233,7 +6256,7 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>1.07601259637311</v>
       </c>
       <c r="I99">
@@ -6264,7 +6287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -6286,7 +6309,7 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>0.21687257890755701</v>
       </c>
       <c r="I100">
@@ -6317,7 +6340,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -6339,7 +6362,7 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="2">
         <v>1.1554878629224099</v>
       </c>
       <c r="I101">
@@ -6370,7 +6393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -6392,7 +6415,7 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="2">
         <v>2.43360547484692</v>
       </c>
       <c r="I102">
@@ -6423,7 +6446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -6445,7 +6468,7 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="2">
         <v>8.5306877730954994E-2</v>
       </c>
       <c r="I103">
@@ -6476,7 +6499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -6498,7 +6521,7 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="2">
         <v>1.12795415472779</v>
       </c>
       <c r="I104">
@@ -6529,7 +6552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -6551,7 +6574,7 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="2">
         <v>0.34738072151363703</v>
       </c>
       <c r="I105">
@@ -6582,7 +6605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -6604,7 +6627,7 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="2">
         <v>0.12519769867284</v>
       </c>
       <c r="I106">
@@ -6635,7 +6658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -6657,7 +6680,7 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="2">
         <v>0.34955551523947698</v>
       </c>
       <c r="I107">
@@ -6688,7 +6711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -6710,7 +6733,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="2">
         <v>0.16191134366670001</v>
       </c>
       <c r="I108">
@@ -6741,7 +6764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -6763,7 +6786,7 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="2">
         <v>1.3117621438232101</v>
       </c>
       <c r="I109">
@@ -6794,7 +6817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -6816,7 +6839,7 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2">
         <v>3.7290096406660802</v>
       </c>
       <c r="I110">
@@ -6847,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -6869,7 +6892,7 @@
       <c r="G111">
         <v>1</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="2">
         <v>8.8811251332485099</v>
       </c>
       <c r="I111">
@@ -6900,7 +6923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -6922,7 +6945,7 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="2">
         <v>0.67627893917946702</v>
       </c>
       <c r="I112">
@@ -6953,7 +6976,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -6975,7 +6998,7 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="2">
         <v>4.6280409817305399</v>
       </c>
       <c r="I113">
@@ -7006,7 +7029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -7028,7 +7051,7 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="2">
         <v>6.54377579422209</v>
       </c>
       <c r="I114">
@@ -7059,7 +7082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -7081,7 +7104,7 @@
       <c r="G115">
         <v>1</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="2">
         <v>15.3060836501901</v>
       </c>
       <c r="I115">
@@ -7112,7 +7135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -7134,7 +7157,7 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="2">
         <v>0.31154793971001199</v>
       </c>
       <c r="I116">
@@ -7165,7 +7188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -7187,7 +7210,7 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="2">
         <v>1.20604395604395</v>
       </c>
       <c r="I117">
@@ -7218,7 +7241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -7240,7 +7263,7 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="2">
         <v>0.11857363741785901</v>
       </c>
       <c r="I118">
@@ -7271,7 +7294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -7293,7 +7316,7 @@
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="2">
         <v>0.40285714285714302</v>
       </c>
       <c r="I119">
@@ -7324,7 +7347,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -7346,7 +7369,7 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="2">
         <v>5.4960948799537002E-2</v>
       </c>
       <c r="I120">
@@ -7377,7 +7400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -7394,9 +7417,15 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>7.1360000000000007E-2</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
@@ -7423,8 +7452,12 @@
       <c r="Q121">
         <v>77</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -7446,7 +7479,7 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="2">
         <v>5.6788456689664599</v>
       </c>
       <c r="I122">
@@ -7477,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -7499,7 +7532,7 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="2">
         <v>0.92828675722577902</v>
       </c>
       <c r="I123">
@@ -7530,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -7552,7 +7585,7 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="2">
         <v>7.4490521055407002E-2</v>
       </c>
       <c r="I124">
@@ -7583,7 +7616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -7605,7 +7638,7 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="2">
         <v>0.20423625107975801</v>
       </c>
       <c r="I125">
@@ -7636,7 +7669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7658,7 +7691,7 @@
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="2">
         <v>1.29987638315192</v>
       </c>
       <c r="I126">
@@ -7689,7 +7722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -7711,7 +7744,7 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="2">
         <v>0.131482834185537</v>
       </c>
       <c r="I127">
@@ -7742,7 +7775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -7764,7 +7797,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="2">
         <v>0.22207957450223001</v>
       </c>
       <c r="I128">
@@ -7795,7 +7828,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -7817,7 +7850,7 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="2">
         <v>0.14704451471661401</v>
       </c>
       <c r="I129">
@@ -7848,7 +7881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -7870,7 +7903,7 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="2">
         <v>0.227826485588218</v>
       </c>
       <c r="I130">
@@ -7901,7 +7934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -7923,7 +7956,7 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="2">
         <v>0.35831955288552098</v>
       </c>
       <c r="I131">
@@ -7954,7 +7987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -7976,7 +8009,7 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="2">
         <v>0.109558899368547</v>
       </c>
       <c r="I132">
@@ -8007,7 +8040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -8029,7 +8062,7 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="2">
         <v>0.13427301555594401</v>
       </c>
       <c r="I133">
@@ -8060,7 +8093,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -8082,7 +8115,7 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="2">
         <v>2.0557128285062598</v>
       </c>
       <c r="I134">
@@ -8113,7 +8146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -8135,7 +8168,7 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="2">
         <v>3.9146335796273002</v>
       </c>
       <c r="I135">
@@ -8166,7 +8199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -8188,7 +8221,7 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="2">
         <v>0.16549755862733001</v>
       </c>
       <c r="I136">
@@ -8219,7 +8252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -8241,7 +8274,7 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="2">
         <v>3.7000605326876997E-2</v>
       </c>
       <c r="I137">
@@ -8272,7 +8305,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -8294,7 +8327,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="2">
         <v>0.86220942995828997</v>
       </c>
       <c r="I138">
@@ -8325,7 +8358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -8347,7 +8380,7 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="2">
         <v>0.97096167411239098</v>
       </c>
       <c r="I139">
@@ -8378,7 +8411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -8400,7 +8433,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="2">
         <v>1.66049953746531</v>
       </c>
       <c r="I140">
@@ -8431,7 +8464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -8453,7 +8486,7 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="2">
         <v>0.28872513065004102</v>
       </c>
       <c r="I141">
@@ -8484,7 +8517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -8506,7 +8539,7 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="2">
         <v>0.31438440956830799</v>
       </c>
       <c r="I142">
@@ -8537,7 +8570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -8559,7 +8592,7 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="2">
         <v>0.118952038875977</v>
       </c>
       <c r="I143">
@@ -8590,7 +8623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -8612,7 +8645,7 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="2">
         <v>9.0955977581919006E-2</v>
       </c>
       <c r="I144">
@@ -8643,7 +8676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -8665,7 +8698,7 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="2">
         <v>0.79986089375760705</v>
       </c>
       <c r="I145">
@@ -8696,7 +8729,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -8718,7 +8751,7 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="2">
         <v>1.0622165532879799</v>
       </c>
       <c r="I146">
@@ -8749,7 +8782,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -8771,7 +8804,7 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="2">
         <v>4.7368421052631997E-2</v>
       </c>
       <c r="I147">
@@ -8802,7 +8835,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -8824,7 +8857,7 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="2">
         <v>0.33020024988250901</v>
       </c>
       <c r="I148">
@@ -8855,7 +8888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -8877,7 +8910,7 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="2">
         <v>0.368268080013678</v>
       </c>
       <c r="I149">
@@ -8908,7 +8941,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -8930,7 +8963,7 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="2">
         <v>0.90248795580734897</v>
       </c>
       <c r="I150">
@@ -8961,7 +8994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -8983,7 +9016,7 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="2">
         <v>0.79962894248608496</v>
       </c>
       <c r="I151">
@@ -9014,7 +9047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9069,7 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="2">
         <v>0.25221642526177501</v>
       </c>
       <c r="I152">
@@ -9067,7 +9100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -9089,7 +9122,7 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="2">
         <v>2.2850685785536098</v>
       </c>
       <c r="I153">
@@ -9120,7 +9153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -9142,7 +9175,7 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="2">
         <v>0.156761837083223</v>
       </c>
       <c r="I154">
@@ -9173,7 +9206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -9195,7 +9228,7 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="2">
         <v>0.17387525350771901</v>
       </c>
       <c r="I155">
@@ -9226,7 +9259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -9248,7 +9281,7 @@
       <c r="G156">
         <v>24</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="2">
         <v>28.679234903789901</v>
       </c>
       <c r="I156">
@@ -9279,7 +9312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -9301,7 +9334,7 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="2">
         <v>1.0989203685875299</v>
       </c>
       <c r="I157">
@@ -9332,7 +9365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -9354,7 +9387,7 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="2">
         <v>3.3447706346257</v>
       </c>
       <c r="I158">
@@ -9385,7 +9418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -9407,7 +9440,7 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="2">
         <v>10.592592592592499</v>
       </c>
       <c r="I159">
@@ -9438,7 +9471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -9460,7 +9493,7 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="2">
         <v>0.186898912511934</v>
       </c>
       <c r="I160">
@@ -9491,7 +9524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -9513,7 +9546,7 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="2">
         <v>9.8521320495185999E-2</v>
       </c>
       <c r="I161">
@@ -9544,7 +9577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -9566,7 +9599,7 @@
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="2">
         <v>5.1628460064741998E-2</v>
       </c>
       <c r="I162">
@@ -9597,7 +9630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -9619,7 +9652,7 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="2">
         <v>0.14618070284203999</v>
       </c>
       <c r="I163">
@@ -9650,7 +9683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -9672,7 +9705,7 @@
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="2">
         <v>1.57471290714465</v>
       </c>
       <c r="I164">
@@ -9703,7 +9736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -9725,7 +9758,7 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="2">
         <v>9.2830566477355401</v>
       </c>
       <c r="I165">
@@ -9756,7 +9789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -9778,7 +9811,7 @@
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="2">
         <v>5.8774509803921502</v>
       </c>
       <c r="I166">
@@ -9809,7 +9842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -9831,7 +9864,7 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="2">
         <v>0.50386398763523998</v>
       </c>
       <c r="I167">
@@ -9862,7 +9895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -9884,7 +9917,7 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="2">
         <v>3.35631683304489</v>
       </c>
       <c r="I168">
@@ -9915,7 +9948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -9937,7 +9970,7 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="2">
         <v>1.6968056307525701</v>
       </c>
       <c r="I169">
@@ -9968,7 +10001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -9990,7 +10023,7 @@
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="2">
         <v>0.247759158222915</v>
       </c>
       <c r="I170">
@@ -10021,7 +10054,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -10043,7 +10076,7 @@
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="2">
         <v>0.14693946567467001</v>
       </c>
       <c r="I171">
@@ -10074,7 +10107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -10096,7 +10129,7 @@
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="2">
         <v>6.2350898505546803</v>
       </c>
       <c r="I172">
@@ -10127,7 +10160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -10149,7 +10182,7 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="2">
         <v>3.4322039818372301</v>
       </c>
       <c r="I173">
@@ -10180,7 +10213,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -10202,7 +10235,7 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="2">
         <v>0.24995415367687501</v>
       </c>
       <c r="I174">
@@ -10233,7 +10266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -10255,7 +10288,7 @@
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="2">
         <v>0.62360954880639896</v>
       </c>
       <c r="I175">
@@ -10286,7 +10319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -10308,7 +10341,7 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="2">
         <v>0.81647448454128702</v>
       </c>
       <c r="I176">
@@ -10339,7 +10372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -10361,7 +10394,7 @@
       <c r="G177">
         <v>0</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="2">
         <v>0.155393349553933</v>
       </c>
       <c r="I177">
@@ -10392,7 +10425,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -10414,7 +10447,7 @@
       <c r="G178">
         <v>0</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="2">
         <v>0.98817361769157896</v>
       </c>
       <c r="I178">
@@ -10445,7 +10478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -10467,7 +10500,7 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="2">
         <v>0.35575258017593703</v>
       </c>
       <c r="I179">
@@ -10498,7 +10531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -10520,7 +10553,7 @@
       <c r="G180">
         <v>0</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="2">
         <v>0.121071012805588</v>
       </c>
       <c r="I180">
@@ -10551,7 +10584,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -10573,7 +10606,7 @@
       <c r="G181">
         <v>0</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="2">
         <v>0.92243414868985096</v>
       </c>
       <c r="I181">
@@ -10604,7 +10637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -10626,7 +10659,7 @@
       <c r="G182">
         <v>0</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="2">
         <v>0.72931078657443005</v>
       </c>
       <c r="I182">
@@ -10657,7 +10690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -10679,7 +10712,7 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="2">
         <v>4.7608678211637001E-2</v>
       </c>
       <c r="I183">
@@ -10710,7 +10743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -10732,7 +10765,7 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="2">
         <v>0.2580803401101</v>
       </c>
       <c r="I184">
@@ -10763,7 +10796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -10785,7 +10818,7 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="2">
         <v>7.3166096541238998E-2</v>
       </c>
       <c r="I185">
@@ -10816,7 +10849,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -10838,7 +10871,7 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="2">
         <v>0.25331805157593101</v>
       </c>
       <c r="I186">
@@ -10869,7 +10902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -10891,7 +10924,7 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="2">
         <v>7.9026101310224001E-2</v>
       </c>
       <c r="I187">
@@ -10922,7 +10955,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -10944,7 +10977,7 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="2">
         <v>1.5991200609188998E-2</v>
       </c>
       <c r="I188">
